--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T13:22:53+00:00</t>
+    <t>2025-07-31T14:57:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T14:57:51+00:00</t>
+    <t>2025-07-31T15:04:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T15:04:06+00:00</t>
+    <t>2025-07-31T17:00:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T17:00:40+00:00</t>
+    <t>2025-07-31T17:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T17:28:56+00:00</t>
+    <t>2025-08-01T05:49:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T05:49:55+00:00</t>
+    <t>2025-08-01T06:09:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2236,17 +2236,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.74609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.03125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.63671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="63.859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.52734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="27.5703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.19140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.0390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2255,27 +2255,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="92.91796875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="108.3828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="39.109375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="187.0625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="45.6171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="218.1953125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:09:21+00:00</t>
+    <t>2025-08-01T06:28:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2236,17 +2236,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="63.859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.52734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.5703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.74609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.03125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.63671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.0390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="71.19140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2255,27 +2255,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="108.3828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="92.91796875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="45.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="218.1953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="39.109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="187.0625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:28:22+00:00</t>
+    <t>2025-08-01T06:41:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:41:28+00:00</t>
+    <t>2025-08-01T06:49:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2236,17 +2236,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.74609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.03125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.63671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="63.859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.52734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="27.5703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.19140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.0390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2255,27 +2255,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="92.91796875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="108.3828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="39.109375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="187.0625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="45.6171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="218.1953125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:49:21+00:00</t>
+    <t>2025-09-10T13:27:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2236,17 +2236,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="63.859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.52734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.5703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.74609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.03125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.63671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.0390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="71.19140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2255,27 +2255,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="108.3828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="92.91796875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="45.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="218.1953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="39.109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="187.0625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T13:27:38+00:00</t>
+    <t>2025-09-15T14:58:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T14:58:18+00:00</t>
+    <t>2025-09-16T12:38:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T12:38:50+00:00</t>
+    <t>2025-09-17T15:36:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T15:36:32+00:00</t>
+    <t>2025-09-17T15:51:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T15:51:47+00:00</t>
+    <t>2025-09-19T12:04:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-19T12:04:16+00:00</t>
+    <t>2025-09-24T12:27:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T12:27:45+00:00</t>
+    <t>2025-09-24T14:43:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2236,17 +2236,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.74609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.03125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.63671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="63.859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.52734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="27.5703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.19140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.0390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2255,27 +2255,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="92.91796875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="108.3828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="39.109375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="187.0625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="45.6171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="218.1953125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T14:43:36+00:00</t>
+    <t>2025-10-16T12:41:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2236,17 +2236,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="63.859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.52734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.5703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.74609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.03125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.63671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.0390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="71.19140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2255,27 +2255,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="108.3828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="92.91796875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="45.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="218.1953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="39.109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="187.0625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T12:41:56+00:00</t>
+    <t>2025-10-20T09:49:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T09:49:22+00:00</t>
+    <t>2025-10-20T13:54:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T13:54:58+00:00</t>
+    <t>2025-10-23T09:18:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T09:18:35+00:00</t>
+    <t>2025-10-23T14:35:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T14:35:50+00:00</t>
+    <t>2025-10-29T16:42:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.1.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T16:42:45+00:00</t>
+    <t>2025-11-04T09:41:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T09:41:06+00:00</t>
+    <t>2025-11-04T14:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2236,17 +2236,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.74609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.03125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.63671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="63.859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.52734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="27.5703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.19140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.0390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2255,27 +2255,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="92.91796875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="108.3828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="39.109375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="187.0625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="45.6171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="218.1953125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0-ballot</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T14:52:21+00:00</t>
+    <t>2025-12-08T13:48:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2236,17 +2236,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="63.859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.52734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.5703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.74609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.03125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.63671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.0390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="71.19140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2255,27 +2255,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="108.3828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="92.91796875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="45.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="218.1953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="39.109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="187.0625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T13:48:42+00:00</t>
+    <t>2025-12-08T14:21:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2236,17 +2236,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.74609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.03125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.63671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="63.859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.52734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="27.5703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.19140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.0390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2255,27 +2255,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="92.91796875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="108.3828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="39.109375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="187.0625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="45.6171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="218.1953125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T14:21:35+00:00</t>
+    <t>2025-12-17T08:43:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2236,17 +2236,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="63.859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.52734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.5703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.74609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.03125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.63671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.0390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="71.19140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2255,27 +2255,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="108.3828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="92.91796875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="45.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="218.1953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="39.109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="187.0625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T08:43:13+00:00</t>
+    <t>2025-12-17T14:24:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:03:49+00:00</t>
+    <t>2025-12-18T17:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:22:25+00:00</t>
+    <t>2025-12-18T17:25:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5764" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5764" uniqueCount="613">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:25:31+00:00</t>
+    <t>2025-12-19T08:32:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -439,7 +439,7 @@
     <t>Organization.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -490,7 +490,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -514,7 +514,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -557,7 +557,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -633,7 +633,7 @@
     <t>shortName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-short-name}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-short-name|2.1.0}
 </t>
   </si>
   <si>
@@ -650,7 +650,7 @@
     <t>description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-description}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-description|2.1.0}
 </t>
   </si>
   <si>
@@ -663,7 +663,7 @@
     <t>usePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {organization-period}
+    <t xml:space="preserve">Extension {organization-period|5.2.0}
 </t>
   </si>
   <si>
@@ -749,7 +749,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -777,7 +777,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-identifier-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-identifier-type|2.1.0</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -871,7 +871,7 @@
     <t>Organization.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -921,9 +921,6 @@
   </si>
   <si>
     <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
   </si>
   <si>
     <t>Organization.identifier:idNatSt.type</t>
@@ -940,7 +937,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Organization.identifier:idNatSt.system</t>
@@ -1424,7 +1421,7 @@
     <t>Used to categorize the organization.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/organization-type</t>
+    <t>http://hl7.org/fhir/ValueSet/organization-type|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">pattern:$this}
@@ -1446,7 +1443,7 @@
     <t>organizationType</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type|2.1.0</t>
   </si>
   <si>
     <t>Organization.type:organizationType.id</t>
@@ -1527,7 +1524,7 @@
     <t>Secteurs d'activité des établissements avec la même activité dans le RASS</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J101-SecteurActivite-RASS/FHIR/JDV-J101-SecteurActivite-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J101-SecteurActivite-RASS/FHIR/JDV-J101-SecteurActivite-RASS|20250828120000</t>
   </si>
   <si>
     <t>Organization.type:secteurActiviteRASS.id</t>
@@ -1572,7 +1569,7 @@
     <t>Catégorie d'établissement du RASS</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J129-CategorieEtablissement-RASS/FHIR/JDV-J129-CategorieEtablissement-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J129-CategorieEtablissement-RASS/FHIR/JDV-J129-CategorieEtablissement-RASS|20241025120000</t>
   </si>
   <si>
     <t>Organization.type:categorieEtablissementRASS.id</t>
@@ -1654,7 +1651,7 @@
     <t>Organization.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.1.0}
 </t>
   </si>
   <si>
@@ -1686,7 +1683,7 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.1.0}
 </t>
   </si>
   <si>
@@ -1718,7 +1715,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0)
 </t>
   </si>
   <si>
@@ -1871,7 +1868,7 @@
     <t>The purpose for which you would contact a contact party.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
+    <t>http://hl7.org/fhir/ValueSet/contactentity-type|4.0.1</t>
   </si>
   <si>
     <t>./type</t>
@@ -1918,7 +1915,7 @@
     <t>Organization.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint)
+    <t xml:space="preserve">Reference(Endpoint|4.0.1)
 </t>
   </si>
   <si>
@@ -2252,7 +2249,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.19140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.71875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2267,7 +2264,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="92.91796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="107.44921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -6333,7 +6330,7 @@
         <v>291</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -6383,7 +6380,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>238</v>
@@ -6431,7 +6428,7 @@
         <v>78</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>78</v>
@@ -6449,10 +6446,10 @@
         <v>151</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Z36" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -6502,7 +6499,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>247</v>
@@ -6550,7 +6547,7 @@
         <v>78</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>252</v>
@@ -6621,7 +6618,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>257</v>
@@ -6650,7 +6647,7 @@
         <v>103</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>259</v>
@@ -6738,7 +6735,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>266</v>
@@ -6853,7 +6850,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>274</v>
@@ -6970,13 +6967,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>215</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>78</v>
@@ -7001,7 +6998,7 @@
         <v>216</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>218</v>
@@ -7089,7 +7086,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>227</v>
@@ -7204,7 +7201,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>228</v>
@@ -7321,7 +7318,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>229</v>
@@ -7390,7 +7387,7 @@
         <v>291</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -7440,7 +7437,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>238</v>
@@ -7488,7 +7485,7 @@
         <v>78</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>78</v>
@@ -7506,10 +7503,10 @@
         <v>151</v>
       </c>
       <c r="Y45" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Z45" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
@@ -7559,7 +7556,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>247</v>
@@ -7607,7 +7604,7 @@
         <v>78</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>252</v>
@@ -7678,7 +7675,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>257</v>
@@ -7795,7 +7792,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>266</v>
@@ -7910,7 +7907,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>274</v>
@@ -8027,13 +8024,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>215</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>78</v>
@@ -8058,7 +8055,7 @@
         <v>216</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>218</v>
@@ -8146,7 +8143,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>227</v>
@@ -8261,7 +8258,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>228</v>
@@ -8378,7 +8375,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>229</v>
@@ -8447,7 +8444,7 @@
         <v>291</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
@@ -8497,7 +8494,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>238</v>
@@ -8545,7 +8542,7 @@
         <v>78</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>78</v>
@@ -8563,10 +8560,10 @@
         <v>151</v>
       </c>
       <c r="Y54" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Z54" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>78</v>
@@ -8616,7 +8613,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>247</v>
@@ -8664,7 +8661,7 @@
         <v>78</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>252</v>
@@ -8735,7 +8732,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>257</v>
@@ -8852,7 +8849,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>266</v>
@@ -8967,7 +8964,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>274</v>
@@ -9084,13 +9081,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>215</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>78</v>
@@ -9115,7 +9112,7 @@
         <v>216</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>218</v>
@@ -9203,7 +9200,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>227</v>
@@ -9318,7 +9315,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>228</v>
@@ -9435,7 +9432,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>229</v>
@@ -9504,7 +9501,7 @@
         <v>291</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>78</v>
@@ -9554,7 +9551,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>238</v>
@@ -9620,10 +9617,10 @@
         <v>151</v>
       </c>
       <c r="Y63" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Z63" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>78</v>
@@ -9673,10 +9670,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B64" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9788,10 +9785,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B65" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9905,10 +9902,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9934,16 +9931,16 @@
         <v>147</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="N66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -9992,7 +9989,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -10010,10 +10007,10 @@
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -10024,10 +10021,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B67" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10139,10 +10136,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10256,10 +10253,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B69" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10285,16 +10282,16 @@
         <v>131</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>78</v>
@@ -10304,46 +10301,46 @@
         <v>78</v>
       </c>
       <c r="S69" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF69" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10361,10 +10358,10 @@
         <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
@@ -10375,10 +10372,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B70" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10404,13 +10401,13 @@
         <v>103</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10460,7 +10457,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10478,10 +10475,10 @@
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10492,10 +10489,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="B71" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10521,14 +10518,14 @@
         <v>169</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>78</v>
@@ -10577,7 +10574,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10595,10 +10592,10 @@
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10609,10 +10606,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B72" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10638,14 +10635,14 @@
         <v>103</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>78</v>
@@ -10694,7 +10691,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10712,10 +10709,10 @@
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10726,10 +10723,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B73" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10752,19 +10749,19 @@
         <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="N73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>78</v>
@@ -10813,7 +10810,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10831,10 +10828,10 @@
         <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10845,10 +10842,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B74" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10874,16 +10871,16 @@
         <v>103</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -10932,7 +10929,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10950,10 +10947,10 @@
         <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10964,7 +10961,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>247</v>
@@ -11012,7 +11009,7 @@
         <v>78</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>252</v>
@@ -11083,7 +11080,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>257</v>
@@ -11200,7 +11197,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>266</v>
@@ -11315,7 +11312,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>274</v>
@@ -11432,13 +11429,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>215</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>78</v>
@@ -11463,7 +11460,7 @@
         <v>216</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>218</v>
@@ -11551,7 +11548,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>227</v>
@@ -11666,7 +11663,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>228</v>
@@ -11783,7 +11780,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>229</v>
@@ -11852,7 +11849,7 @@
         <v>291</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>78</v>
@@ -11902,7 +11899,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>238</v>
@@ -11950,7 +11947,7 @@
         <v>78</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>78</v>
@@ -11968,10 +11965,10 @@
         <v>151</v>
       </c>
       <c r="Y83" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Z83" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>78</v>
@@ -12021,7 +12018,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>247</v>
@@ -12069,7 +12066,7 @@
         <v>78</v>
       </c>
       <c r="S84" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="T84" t="s" s="2">
         <v>252</v>
@@ -12140,7 +12137,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>257</v>
@@ -12257,7 +12254,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>266</v>
@@ -12372,7 +12369,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>274</v>
@@ -12489,13 +12486,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>215</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>78</v>
@@ -12520,7 +12517,7 @@
         <v>216</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>218</v>
@@ -12608,7 +12605,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>227</v>
@@ -12723,7 +12720,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>228</v>
@@ -12840,7 +12837,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>229</v>
@@ -12909,7 +12906,7 @@
         <v>291</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>78</v>
@@ -12959,7 +12956,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>238</v>
@@ -13007,7 +13004,7 @@
         <v>78</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>78</v>
@@ -13025,10 +13022,10 @@
         <v>151</v>
       </c>
       <c r="Y92" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Z92" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>78</v>
@@ -13078,7 +13075,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>247</v>
@@ -13126,7 +13123,7 @@
         <v>78</v>
       </c>
       <c r="S93" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="T93" t="s" s="2">
         <v>252</v>
@@ -13197,7 +13194,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>257</v>
@@ -13314,7 +13311,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>266</v>
@@ -13429,7 +13426,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>274</v>
@@ -13546,10 +13543,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13572,26 +13569,26 @@
         <v>90</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="N97" t="s" s="2">
+      <c r="O97" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="O97" t="s" s="2">
+      <c r="P97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q97" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="P97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q97" t="s" s="2">
-        <v>440</v>
-      </c>
       <c r="R97" t="s" s="2">
         <v>78</v>
       </c>
@@ -13635,7 +13632,7 @@
         <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -13653,24 +13650,24 @@
         <v>78</v>
       </c>
       <c r="AL97" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AM97" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AM97" t="s" s="2">
+      <c r="AN97" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AN97" t="s" s="2">
+      <c r="AO97" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AO97" t="s" s="2">
-        <v>444</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13696,16 +13693,16 @@
         <v>239</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="N98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>78</v>
@@ -13733,16 +13730,16 @@
         <v>159</v>
       </c>
       <c r="Y98" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="Z98" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="Z98" t="s" s="2">
+      <c r="AA98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB98" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="AC98" s="2"/>
       <c r="AD98" t="s" s="2">
@@ -13752,7 +13749,7 @@
         <v>116</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
@@ -13770,27 +13767,27 @@
         <v>78</v>
       </c>
       <c r="AL98" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AM98" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="C99" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="C99" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>78</v>
@@ -13815,16 +13812,16 @@
         <v>239</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="N99" t="s" s="2">
+      <c r="O99" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>78</v>
@@ -13853,7 +13850,7 @@
       </c>
       <c r="Y99" s="2"/>
       <c r="Z99" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>78</v>
@@ -13871,7 +13868,7 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
@@ -13889,24 +13886,24 @@
         <v>78</v>
       </c>
       <c r="AL99" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AM99" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B100" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14018,10 +14015,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B101" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14135,10 +14132,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B102" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14164,16 +14161,16 @@
         <v>147</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="N102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>78</v>
@@ -14222,7 +14219,7 @@
         <v>78</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
@@ -14240,10 +14237,10 @@
         <v>78</v>
       </c>
       <c r="AL102" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AM102" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>78</v>
@@ -14254,10 +14251,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B103" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14369,10 +14366,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B104" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14486,10 +14483,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B105" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14515,16 +14512,16 @@
         <v>131</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="N105" t="s" s="2">
+      <c r="O105" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>78</v>
@@ -14573,7 +14570,7 @@
         <v>78</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
@@ -14591,10 +14588,10 @@
         <v>78</v>
       </c>
       <c r="AL105" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AM105" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>78</v>
@@ -14605,10 +14602,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B106" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14634,13 +14631,13 @@
         <v>103</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14690,7 +14687,7 @@
         <v>78</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>79</v>
@@ -14708,10 +14705,10 @@
         <v>78</v>
       </c>
       <c r="AL106" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AM106" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>78</v>
@@ -14722,10 +14719,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B107" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14751,14 +14748,14 @@
         <v>169</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>78</v>
@@ -14807,7 +14804,7 @@
         <v>78</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
@@ -14825,10 +14822,10 @@
         <v>78</v>
       </c>
       <c r="AL107" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AM107" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>78</v>
@@ -14839,10 +14836,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B108" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14868,14 +14865,14 @@
         <v>103</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>78</v>
@@ -14924,7 +14921,7 @@
         <v>78</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
@@ -14942,10 +14939,10 @@
         <v>78</v>
       </c>
       <c r="AL108" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AM108" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>78</v>
@@ -14956,10 +14953,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B109" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14982,19 +14979,19 @@
         <v>90</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L109" t="s" s="2">
+      <c r="M109" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="N109" t="s" s="2">
+      <c r="O109" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>78</v>
@@ -15043,7 +15040,7 @@
         <v>78</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
@@ -15061,10 +15058,10 @@
         <v>78</v>
       </c>
       <c r="AL109" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM109" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>78</v>
@@ -15075,10 +15072,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B110" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15104,16 +15101,16 @@
         <v>103</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="N110" t="s" s="2">
+      <c r="O110" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>78</v>
@@ -15162,7 +15159,7 @@
         <v>78</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
@@ -15180,10 +15177,10 @@
         <v>78</v>
       </c>
       <c r="AL110" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AM110" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>78</v>
@@ -15194,13 +15191,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="C111" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="C111" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="D111" t="s" s="2">
         <v>78</v>
@@ -15225,16 +15222,16 @@
         <v>239</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M111" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N111" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="N111" t="s" s="2">
+      <c r="O111" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>78</v>
@@ -15263,7 +15260,7 @@
       </c>
       <c r="Y111" s="2"/>
       <c r="Z111" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>78</v>
@@ -15281,7 +15278,7 @@
         <v>78</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>79</v>
@@ -15299,24 +15296,24 @@
         <v>78</v>
       </c>
       <c r="AL111" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AM111" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO111" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15428,10 +15425,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15545,10 +15542,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15574,16 +15571,16 @@
         <v>147</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M114" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="N114" t="s" s="2">
+      <c r="O114" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>78</v>
@@ -15632,7 +15629,7 @@
         <v>78</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
@@ -15650,10 +15647,10 @@
         <v>78</v>
       </c>
       <c r="AL114" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AM114" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>78</v>
@@ -15664,10 +15661,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15779,10 +15776,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15896,10 +15893,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15925,16 +15922,16 @@
         <v>131</v>
       </c>
       <c r="L117" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="N117" t="s" s="2">
+      <c r="O117" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>78</v>
@@ -15983,7 +15980,7 @@
         <v>78</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
@@ -16001,10 +15998,10 @@
         <v>78</v>
       </c>
       <c r="AL117" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AM117" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>78</v>
@@ -16015,10 +16012,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16044,13 +16041,13 @@
         <v>103</v>
       </c>
       <c r="L118" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M118" t="s" s="2">
+      <c r="N118" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
@@ -16100,7 +16097,7 @@
         <v>78</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>79</v>
@@ -16118,10 +16115,10 @@
         <v>78</v>
       </c>
       <c r="AL118" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AM118" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>78</v>
@@ -16132,10 +16129,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16161,14 +16158,14 @@
         <v>169</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>78</v>
@@ -16217,7 +16214,7 @@
         <v>78</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>79</v>
@@ -16235,10 +16232,10 @@
         <v>78</v>
       </c>
       <c r="AL119" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AM119" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>78</v>
@@ -16249,10 +16246,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16278,14 +16275,14 @@
         <v>103</v>
       </c>
       <c r="L120" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>78</v>
@@ -16334,7 +16331,7 @@
         <v>78</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>79</v>
@@ -16352,10 +16349,10 @@
         <v>78</v>
       </c>
       <c r="AL120" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AM120" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>78</v>
@@ -16366,10 +16363,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16392,19 +16389,19 @@
         <v>90</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L121" t="s" s="2">
+      <c r="M121" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="N121" t="s" s="2">
+      <c r="O121" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>78</v>
@@ -16453,7 +16450,7 @@
         <v>78</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>79</v>
@@ -16471,10 +16468,10 @@
         <v>78</v>
       </c>
       <c r="AL121" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM121" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>78</v>
@@ -16485,10 +16482,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16514,16 +16511,16 @@
         <v>103</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="N122" t="s" s="2">
+      <c r="O122" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>78</v>
@@ -16572,7 +16569,7 @@
         <v>78</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>79</v>
@@ -16590,10 +16587,10 @@
         <v>78</v>
       </c>
       <c r="AL122" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AM122" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AM122" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>78</v>
@@ -16604,13 +16601,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="C123" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="C123" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>78</v>
@@ -16635,16 +16632,16 @@
         <v>239</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M123" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N123" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="N123" t="s" s="2">
+      <c r="O123" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>78</v>
@@ -16673,7 +16670,7 @@
       </c>
       <c r="Y123" s="2"/>
       <c r="Z123" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>78</v>
@@ -16691,7 +16688,7 @@
         <v>78</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>79</v>
@@ -16709,24 +16706,24 @@
         <v>78</v>
       </c>
       <c r="AL123" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AM123" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AM123" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO123" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16838,10 +16835,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16955,10 +16952,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16984,16 +16981,16 @@
         <v>147</v>
       </c>
       <c r="L126" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M126" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="N126" t="s" s="2">
+      <c r="O126" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>78</v>
@@ -17042,7 +17039,7 @@
         <v>78</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>79</v>
@@ -17060,10 +17057,10 @@
         <v>78</v>
       </c>
       <c r="AL126" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AM126" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>78</v>
@@ -17074,10 +17071,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17189,10 +17186,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17306,10 +17303,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17335,16 +17332,16 @@
         <v>131</v>
       </c>
       <c r="L129" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M129" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M129" t="s" s="2">
+      <c r="N129" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="N129" t="s" s="2">
+      <c r="O129" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>78</v>
@@ -17393,7 +17390,7 @@
         <v>78</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>79</v>
@@ -17411,10 +17408,10 @@
         <v>78</v>
       </c>
       <c r="AL129" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AM129" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>78</v>
@@ -17425,10 +17422,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17454,13 +17451,13 @@
         <v>103</v>
       </c>
       <c r="L130" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
@@ -17510,7 +17507,7 @@
         <v>78</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>79</v>
@@ -17528,10 +17525,10 @@
         <v>78</v>
       </c>
       <c r="AL130" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AM130" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AM130" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>78</v>
@@ -17542,10 +17539,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17571,14 +17568,14 @@
         <v>169</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>78</v>
@@ -17627,7 +17624,7 @@
         <v>78</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>79</v>
@@ -17645,10 +17642,10 @@
         <v>78</v>
       </c>
       <c r="AL131" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AM131" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AM131" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>78</v>
@@ -17659,10 +17656,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17688,14 +17685,14 @@
         <v>103</v>
       </c>
       <c r="L132" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M132" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>78</v>
@@ -17744,7 +17741,7 @@
         <v>78</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>79</v>
@@ -17762,10 +17759,10 @@
         <v>78</v>
       </c>
       <c r="AL132" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AM132" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AM132" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>78</v>
@@ -17776,10 +17773,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17802,19 +17799,19 @@
         <v>90</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L133" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L133" t="s" s="2">
+      <c r="M133" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M133" t="s" s="2">
+      <c r="N133" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="N133" t="s" s="2">
+      <c r="O133" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="O133" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>78</v>
@@ -17863,7 +17860,7 @@
         <v>78</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>79</v>
@@ -17881,10 +17878,10 @@
         <v>78</v>
       </c>
       <c r="AL133" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM133" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AM133" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>78</v>
@@ -17895,10 +17892,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -17924,16 +17921,16 @@
         <v>103</v>
       </c>
       <c r="L134" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M134" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M134" t="s" s="2">
+      <c r="N134" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="N134" t="s" s="2">
+      <c r="O134" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>78</v>
@@ -17982,7 +17979,7 @@
         <v>78</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>79</v>
@@ -18000,10 +17997,10 @@
         <v>78</v>
       </c>
       <c r="AL134" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AM134" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AM134" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>78</v>
@@ -18014,10 +18011,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18043,16 +18040,16 @@
         <v>103</v>
       </c>
       <c r="L135" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="M135" t="s" s="2">
+      <c r="N135" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="N135" t="s" s="2">
+      <c r="O135" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>78</v>
@@ -18101,7 +18098,7 @@
         <v>78</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>79</v>
@@ -18116,16 +18113,16 @@
         <v>101</v>
       </c>
       <c r="AK135" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AL135" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="AL135" t="s" s="2">
+      <c r="AM135" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="AM135" t="s" s="2">
+      <c r="AN135" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>78</v>
@@ -18133,10 +18130,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18162,16 +18159,16 @@
         <v>103</v>
       </c>
       <c r="L136" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="M136" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="M136" t="s" s="2">
+      <c r="N136" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="N136" t="s" s="2">
+      <c r="O136" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>78</v>
@@ -18220,7 +18217,7 @@
         <v>78</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>79</v>
@@ -18241,7 +18238,7 @@
         <v>78</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>78</v>
@@ -18252,10 +18249,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18278,19 +18275,19 @@
         <v>78</v>
       </c>
       <c r="K137" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L137" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="L137" t="s" s="2">
+      <c r="M137" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="M137" t="s" s="2">
+      <c r="N137" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="N137" t="s" s="2">
+      <c r="O137" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="O137" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>78</v>
@@ -18339,7 +18336,7 @@
         <v>78</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>79</v>
@@ -18351,19 +18348,19 @@
         <v>201</v>
       </c>
       <c r="AJ137" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AK137" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL137" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="AK137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL137" t="s" s="2">
+      <c r="AM137" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AM137" t="s" s="2">
+      <c r="AN137" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="AN137" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="AO137" t="s" s="2">
         <v>78</v>
@@ -18371,10 +18368,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18397,19 +18394,19 @@
         <v>78</v>
       </c>
       <c r="K138" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L138" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="L138" t="s" s="2">
+      <c r="M138" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="M138" t="s" s="2">
+      <c r="N138" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="N138" t="s" s="2">
+      <c r="O138" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>78</v>
@@ -18458,7 +18455,7 @@
         <v>78</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>79</v>
@@ -18470,19 +18467,19 @@
         <v>201</v>
       </c>
       <c r="AJ138" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AK138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL138" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="AK138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL138" t="s" s="2">
+      <c r="AM138" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="AM138" t="s" s="2">
+      <c r="AN138" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="AN138" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>78</v>
@@ -18490,10 +18487,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18516,17 +18513,17 @@
         <v>90</v>
       </c>
       <c r="K139" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="L139" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="L139" t="s" s="2">
+      <c r="M139" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>78</v>
@@ -18575,7 +18572,7 @@
         <v>78</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>79</v>
@@ -18593,10 +18590,10 @@
         <v>78</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>107</v>
@@ -18607,10 +18604,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -18722,10 +18719,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -18839,10 +18836,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -18868,13 +18865,13 @@
         <v>103</v>
       </c>
       <c r="L142" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="M142" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="M142" t="s" s="2">
+      <c r="N142" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
@@ -18924,16 +18921,16 @@
         <v>78</v>
       </c>
       <c r="AF142" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI142" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="AG142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH142" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI142" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>101</v>
@@ -18956,10 +18953,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -18985,13 +18982,13 @@
         <v>131</v>
       </c>
       <c r="L143" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M143" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="M143" t="s" s="2">
+      <c r="N143" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" t="s" s="2">
@@ -19021,7 +19018,7 @@
       </c>
       <c r="Y143" s="2"/>
       <c r="Z143" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AA143" t="s" s="2">
         <v>78</v>
@@ -19039,7 +19036,7 @@
         <v>78</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>79</v>
@@ -19071,10 +19068,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19100,13 +19097,13 @@
         <v>216</v>
       </c>
       <c r="L144" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M144" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="M144" t="s" s="2">
+      <c r="N144" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
@@ -19156,7 +19153,7 @@
         <v>78</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>79</v>
@@ -19177,7 +19174,7 @@
         <v>78</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>78</v>
@@ -19188,10 +19185,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19217,13 +19214,13 @@
         <v>103</v>
       </c>
       <c r="L145" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="M145" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="M145" t="s" s="2">
+      <c r="N145" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" t="s" s="2">
@@ -19273,7 +19270,7 @@
         <v>78</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>79</v>
@@ -19305,10 +19302,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19331,19 +19328,19 @@
         <v>78</v>
       </c>
       <c r="K146" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="L146" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="L146" t="s" s="2">
+      <c r="M146" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="M146" t="s" s="2">
+      <c r="N146" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="N146" t="s" s="2">
+      <c r="O146" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="O146" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>78</v>
@@ -19392,7 +19389,7 @@
         <v>78</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>79</v>
@@ -19413,7 +19410,7 @@
         <v>78</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>78</v>
@@ -19424,10 +19421,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19539,10 +19536,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -19656,14 +19653,14 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" t="s" s="2">
@@ -19685,10 +19682,10 @@
         <v>110</v>
       </c>
       <c r="L149" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M149" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="N149" t="s" s="2">
         <v>113</v>
@@ -19743,7 +19740,7 @@
         <v>78</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>79</v>
@@ -19775,10 +19772,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -19804,14 +19801,14 @@
         <v>239</v>
       </c>
       <c r="L150" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="M150" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>78</v>
@@ -19839,11 +19836,11 @@
         <v>151</v>
       </c>
       <c r="Y150" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="Z150" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="Z150" t="s" s="2">
-        <v>595</v>
-      </c>
       <c r="AA150" t="s" s="2">
         <v>78</v>
       </c>
@@ -19860,7 +19857,7 @@
         <v>78</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>79</v>
@@ -19881,7 +19878,7 @@
         <v>78</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>78</v>
@@ -19892,10 +19889,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -19918,17 +19915,17 @@
         <v>78</v>
       </c>
       <c r="K151" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="L151" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="L151" t="s" s="2">
+      <c r="M151" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>78</v>
@@ -19977,7 +19974,7 @@
         <v>78</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>79</v>
@@ -19995,10 +19992,10 @@
         <v>78</v>
       </c>
       <c r="AL151" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AM151" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="AM151" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>78</v>
@@ -20009,10 +20006,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20035,17 +20032,17 @@
         <v>78</v>
       </c>
       <c r="K152" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L152" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="L152" t="s" s="2">
+      <c r="M152" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="M152" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>78</v>
@@ -20094,7 +20091,7 @@
         <v>78</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>79</v>
@@ -20106,19 +20103,19 @@
         <v>201</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL152" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AM152" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AM152" t="s" s="2">
+      <c r="AN152" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="AN152" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="AO152" t="s" s="2">
         <v>78</v>
@@ -20126,10 +20123,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -20152,19 +20149,19 @@
         <v>78</v>
       </c>
       <c r="K153" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L153" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="L153" t="s" s="2">
+      <c r="M153" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="M153" t="s" s="2">
+      <c r="N153" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="N153" t="s" s="2">
-        <v>540</v>
-      </c>
       <c r="O153" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>78</v>
@@ -20213,7 +20210,7 @@
         <v>78</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>79</v>
@@ -20231,13 +20228,13 @@
         <v>78</v>
       </c>
       <c r="AL153" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AM153" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="AM153" t="s" s="2">
+      <c r="AN153" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="AN153" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="AO153" t="s" s="2">
         <v>78</v>
@@ -20245,10 +20242,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20271,17 +20268,17 @@
         <v>78</v>
       </c>
       <c r="K154" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="L154" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="L154" t="s" s="2">
+      <c r="M154" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="M154" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>78</v>
@@ -20330,7 +20327,7 @@
         <v>78</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>79</v>

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5764" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5764" uniqueCount="614">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-ballot</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:32:44+00:00</t>
+    <t>2025-12-19T08:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -439,7 +439,7 @@
     <t>Organization.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
+    <t xml:space="preserve">canonical(StructureDefinition)
 </t>
   </si>
   <si>
@@ -490,7 +490,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -514,7 +514,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -557,7 +557,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -633,7 +633,7 @@
     <t>shortName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-short-name|2.1.0}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-short-name}
 </t>
   </si>
   <si>
@@ -650,7 +650,7 @@
     <t>description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-description|2.1.0}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-description}
 </t>
   </si>
   <si>
@@ -663,7 +663,7 @@
     <t>usePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {organization-period|5.2.0}
+    <t xml:space="preserve">Extension {organization-period}
 </t>
   </si>
   <si>
@@ -749,7 +749,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -777,7 +777,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-identifier-type|2.1.0</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-identifier-type</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -871,7 +871,7 @@
     <t>Organization.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -921,6 +921,9 @@
   </si>
   <si>
     <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
   </si>
   <si>
     <t>Organization.identifier:idNatSt.type</t>
@@ -937,7 +940,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
   </si>
   <si>
     <t>Organization.identifier:idNatSt.system</t>
@@ -1421,7 +1424,7 @@
     <t>Used to categorize the organization.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/organization-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/organization-type</t>
   </si>
   <si>
     <t xml:space="preserve">pattern:$this}
@@ -1443,7 +1446,7 @@
     <t>organizationType</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type|2.1.0</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type</t>
   </si>
   <si>
     <t>Organization.type:organizationType.id</t>
@@ -1524,7 +1527,7 @@
     <t>Secteurs d'activité des établissements avec la même activité dans le RASS</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J101-SecteurActivite-RASS/FHIR/JDV-J101-SecteurActivite-RASS|20250828120000</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J101-SecteurActivite-RASS/FHIR/JDV-J101-SecteurActivite-RASS</t>
   </si>
   <si>
     <t>Organization.type:secteurActiviteRASS.id</t>
@@ -1569,7 +1572,7 @@
     <t>Catégorie d'établissement du RASS</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J129-CategorieEtablissement-RASS/FHIR/JDV-J129-CategorieEtablissement-RASS|20241025120000</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J129-CategorieEtablissement-RASS/FHIR/JDV-J129-CategorieEtablissement-RASS</t>
   </si>
   <si>
     <t>Organization.type:categorieEtablissementRASS.id</t>
@@ -1651,7 +1654,7 @@
     <t>Organization.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.1.0}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
 </t>
   </si>
   <si>
@@ -1683,7 +1686,7 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.1.0}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
 </t>
   </si>
   <si>
@@ -1715,7 +1718,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
 </t>
   </si>
   <si>
@@ -1868,7 +1871,7 @@
     <t>The purpose for which you would contact a contact party.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contactentity-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
   </si>
   <si>
     <t>./type</t>
@@ -1915,7 +1918,7 @@
     <t>Organization.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint|4.0.1)
+    <t xml:space="preserve">Reference(Endpoint)
 </t>
   </si>
   <si>
@@ -2249,7 +2252,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.71875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="71.19140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2264,7 +2267,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="107.44921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="92.91796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -6330,7 +6333,7 @@
         <v>291</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -6380,7 +6383,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>238</v>
@@ -6428,7 +6431,7 @@
         <v>78</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>78</v>
@@ -6446,10 +6449,10 @@
         <v>151</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -6499,7 +6502,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>247</v>
@@ -6547,7 +6550,7 @@
         <v>78</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>252</v>
@@ -6618,7 +6621,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>257</v>
@@ -6647,7 +6650,7 @@
         <v>103</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>259</v>
@@ -6735,7 +6738,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>266</v>
@@ -6850,7 +6853,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>274</v>
@@ -6967,13 +6970,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>215</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>78</v>
@@ -6998,7 +7001,7 @@
         <v>216</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>218</v>
@@ -7086,7 +7089,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>227</v>
@@ -7201,7 +7204,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>228</v>
@@ -7318,7 +7321,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>229</v>
@@ -7387,7 +7390,7 @@
         <v>291</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -7437,7 +7440,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>238</v>
@@ -7485,7 +7488,7 @@
         <v>78</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>78</v>
@@ -7503,10 +7506,10 @@
         <v>151</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
@@ -7556,7 +7559,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>247</v>
@@ -7604,7 +7607,7 @@
         <v>78</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>252</v>
@@ -7675,7 +7678,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>257</v>
@@ -7792,7 +7795,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>266</v>
@@ -7907,7 +7910,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>274</v>
@@ -8024,13 +8027,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>215</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>78</v>
@@ -8055,7 +8058,7 @@
         <v>216</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>218</v>
@@ -8143,7 +8146,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>227</v>
@@ -8258,7 +8261,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>228</v>
@@ -8375,7 +8378,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>229</v>
@@ -8444,7 +8447,7 @@
         <v>291</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
@@ -8494,7 +8497,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>238</v>
@@ -8542,7 +8545,7 @@
         <v>78</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>78</v>
@@ -8560,10 +8563,10 @@
         <v>151</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>78</v>
@@ -8613,7 +8616,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>247</v>
@@ -8661,7 +8664,7 @@
         <v>78</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>252</v>
@@ -8732,7 +8735,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>257</v>
@@ -8849,7 +8852,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>266</v>
@@ -8964,7 +8967,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>274</v>
@@ -9081,13 +9084,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>215</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>78</v>
@@ -9112,7 +9115,7 @@
         <v>216</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>218</v>
@@ -9200,7 +9203,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>227</v>
@@ -9315,7 +9318,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>228</v>
@@ -9432,7 +9435,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>229</v>
@@ -9501,7 +9504,7 @@
         <v>291</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>78</v>
@@ -9551,7 +9554,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>238</v>
@@ -9617,10 +9620,10 @@
         <v>151</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>78</v>
@@ -9670,10 +9673,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9785,10 +9788,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9902,10 +9905,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9931,16 +9934,16 @@
         <v>147</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -9989,7 +9992,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -10007,10 +10010,10 @@
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -10021,10 +10024,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10136,10 +10139,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10253,10 +10256,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10282,16 +10285,16 @@
         <v>131</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>78</v>
@@ -10301,7 +10304,7 @@
         <v>78</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>78</v>
@@ -10340,7 +10343,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10358,10 +10361,10 @@
         <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
@@ -10372,10 +10375,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10401,13 +10404,13 @@
         <v>103</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10457,7 +10460,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10475,10 +10478,10 @@
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10489,10 +10492,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10518,14 +10521,14 @@
         <v>169</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>78</v>
@@ -10574,7 +10577,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10592,10 +10595,10 @@
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10606,10 +10609,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10635,14 +10638,14 @@
         <v>103</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>78</v>
@@ -10691,7 +10694,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10709,10 +10712,10 @@
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10723,10 +10726,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10749,19 +10752,19 @@
         <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>78</v>
@@ -10810,7 +10813,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10828,10 +10831,10 @@
         <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10842,10 +10845,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10871,16 +10874,16 @@
         <v>103</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -10929,7 +10932,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10947,10 +10950,10 @@
         <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10961,7 +10964,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>247</v>
@@ -11009,7 +11012,7 @@
         <v>78</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>252</v>
@@ -11080,7 +11083,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>257</v>
@@ -11197,7 +11200,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>266</v>
@@ -11312,7 +11315,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>274</v>
@@ -11429,13 +11432,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>215</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>78</v>
@@ -11460,7 +11463,7 @@
         <v>216</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>218</v>
@@ -11548,7 +11551,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>227</v>
@@ -11663,7 +11666,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>228</v>
@@ -11780,7 +11783,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>229</v>
@@ -11849,7 +11852,7 @@
         <v>291</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>78</v>
@@ -11899,7 +11902,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>238</v>
@@ -11947,7 +11950,7 @@
         <v>78</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>78</v>
@@ -11965,10 +11968,10 @@
         <v>151</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>78</v>
@@ -12018,7 +12021,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>247</v>
@@ -12066,7 +12069,7 @@
         <v>78</v>
       </c>
       <c r="S84" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="T84" t="s" s="2">
         <v>252</v>
@@ -12137,7 +12140,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>257</v>
@@ -12254,7 +12257,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>266</v>
@@ -12369,7 +12372,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>274</v>
@@ -12486,13 +12489,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>215</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>78</v>
@@ -12517,7 +12520,7 @@
         <v>216</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>218</v>
@@ -12605,7 +12608,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>227</v>
@@ -12720,7 +12723,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>228</v>
@@ -12837,7 +12840,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>229</v>
@@ -12906,7 +12909,7 @@
         <v>291</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>78</v>
@@ -12956,7 +12959,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>238</v>
@@ -13004,7 +13007,7 @@
         <v>78</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>78</v>
@@ -13022,10 +13025,10 @@
         <v>151</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>78</v>
@@ -13075,7 +13078,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>247</v>
@@ -13123,7 +13126,7 @@
         <v>78</v>
       </c>
       <c r="S93" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="T93" t="s" s="2">
         <v>252</v>
@@ -13194,7 +13197,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>257</v>
@@ -13311,7 +13314,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>266</v>
@@ -13426,7 +13429,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>274</v>
@@ -13543,10 +13546,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13569,70 +13572,70 @@
         <v>90</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q97" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF97" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="P97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q97" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -13650,24 +13653,24 @@
         <v>78</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13693,16 +13696,16 @@
         <v>239</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>78</v>
@@ -13730,16 +13733,16 @@
         <v>159</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AC98" s="2"/>
       <c r="AD98" t="s" s="2">
@@ -13749,7 +13752,7 @@
         <v>116</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
@@ -13767,27 +13770,27 @@
         <v>78</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>78</v>
@@ -13812,16 +13815,16 @@
         <v>239</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>78</v>
@@ -13850,7 +13853,7 @@
       </c>
       <c r="Y99" s="2"/>
       <c r="Z99" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>78</v>
@@ -13868,7 +13871,7 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
@@ -13886,24 +13889,24 @@
         <v>78</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14015,10 +14018,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14132,10 +14135,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14161,16 +14164,16 @@
         <v>147</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>78</v>
@@ -14219,7 +14222,7 @@
         <v>78</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
@@ -14237,10 +14240,10 @@
         <v>78</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>78</v>
@@ -14251,10 +14254,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14366,10 +14369,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14483,10 +14486,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14512,16 +14515,16 @@
         <v>131</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>78</v>
@@ -14570,7 +14573,7 @@
         <v>78</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
@@ -14588,10 +14591,10 @@
         <v>78</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>78</v>
@@ -14602,10 +14605,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14631,13 +14634,13 @@
         <v>103</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14687,7 +14690,7 @@
         <v>78</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>79</v>
@@ -14705,10 +14708,10 @@
         <v>78</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>78</v>
@@ -14719,10 +14722,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14748,14 +14751,14 @@
         <v>169</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>78</v>
@@ -14804,7 +14807,7 @@
         <v>78</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
@@ -14822,10 +14825,10 @@
         <v>78</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>78</v>
@@ -14836,10 +14839,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14865,14 +14868,14 @@
         <v>103</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>78</v>
@@ -14921,7 +14924,7 @@
         <v>78</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
@@ -14939,10 +14942,10 @@
         <v>78</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>78</v>
@@ -14953,10 +14956,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14979,19 +14982,19 @@
         <v>90</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>78</v>
@@ -15040,7 +15043,7 @@
         <v>78</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
@@ -15058,10 +15061,10 @@
         <v>78</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>78</v>
@@ -15072,10 +15075,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15101,16 +15104,16 @@
         <v>103</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>78</v>
@@ -15159,7 +15162,7 @@
         <v>78</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
@@ -15177,10 +15180,10 @@
         <v>78</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>78</v>
@@ -15191,13 +15194,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D111" t="s" s="2">
         <v>78</v>
@@ -15222,16 +15225,16 @@
         <v>239</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>78</v>
@@ -15260,7 +15263,7 @@
       </c>
       <c r="Y111" s="2"/>
       <c r="Z111" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>78</v>
@@ -15278,7 +15281,7 @@
         <v>78</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>79</v>
@@ -15296,24 +15299,24 @@
         <v>78</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO111" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15425,10 +15428,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15542,10 +15545,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15571,16 +15574,16 @@
         <v>147</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>78</v>
@@ -15629,7 +15632,7 @@
         <v>78</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
@@ -15647,10 +15650,10 @@
         <v>78</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>78</v>
@@ -15661,10 +15664,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15776,10 +15779,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15893,10 +15896,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15922,16 +15925,16 @@
         <v>131</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>78</v>
@@ -15980,7 +15983,7 @@
         <v>78</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
@@ -15998,10 +16001,10 @@
         <v>78</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>78</v>
@@ -16012,10 +16015,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16041,13 +16044,13 @@
         <v>103</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
@@ -16097,7 +16100,7 @@
         <v>78</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>79</v>
@@ -16115,10 +16118,10 @@
         <v>78</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>78</v>
@@ -16129,10 +16132,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16158,14 +16161,14 @@
         <v>169</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>78</v>
@@ -16214,7 +16217,7 @@
         <v>78</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>79</v>
@@ -16232,10 +16235,10 @@
         <v>78</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>78</v>
@@ -16246,10 +16249,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16275,14 +16278,14 @@
         <v>103</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>78</v>
@@ -16331,7 +16334,7 @@
         <v>78</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>79</v>
@@ -16349,10 +16352,10 @@
         <v>78</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>78</v>
@@ -16363,10 +16366,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16389,19 +16392,19 @@
         <v>90</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>78</v>
@@ -16450,7 +16453,7 @@
         <v>78</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>79</v>
@@ -16468,10 +16471,10 @@
         <v>78</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>78</v>
@@ -16482,10 +16485,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16511,16 +16514,16 @@
         <v>103</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>78</v>
@@ -16569,7 +16572,7 @@
         <v>78</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>79</v>
@@ -16587,10 +16590,10 @@
         <v>78</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>78</v>
@@ -16601,13 +16604,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>78</v>
@@ -16632,16 +16635,16 @@
         <v>239</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>78</v>
@@ -16670,7 +16673,7 @@
       </c>
       <c r="Y123" s="2"/>
       <c r="Z123" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>78</v>
@@ -16688,7 +16691,7 @@
         <v>78</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>79</v>
@@ -16706,24 +16709,24 @@
         <v>78</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO123" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16835,10 +16838,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16952,10 +16955,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16981,16 +16984,16 @@
         <v>147</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>78</v>
@@ -17039,7 +17042,7 @@
         <v>78</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>79</v>
@@ -17057,10 +17060,10 @@
         <v>78</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>78</v>
@@ -17071,10 +17074,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17186,10 +17189,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17303,10 +17306,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17332,16 +17335,16 @@
         <v>131</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>78</v>
@@ -17390,7 +17393,7 @@
         <v>78</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>79</v>
@@ -17408,10 +17411,10 @@
         <v>78</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>78</v>
@@ -17422,10 +17425,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17451,13 +17454,13 @@
         <v>103</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
@@ -17507,7 +17510,7 @@
         <v>78</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>79</v>
@@ -17525,10 +17528,10 @@
         <v>78</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>78</v>
@@ -17539,10 +17542,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17568,14 +17571,14 @@
         <v>169</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>78</v>
@@ -17624,7 +17627,7 @@
         <v>78</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>79</v>
@@ -17642,10 +17645,10 @@
         <v>78</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>78</v>
@@ -17656,10 +17659,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17685,14 +17688,14 @@
         <v>103</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>78</v>
@@ -17741,7 +17744,7 @@
         <v>78</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>79</v>
@@ -17759,10 +17762,10 @@
         <v>78</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>78</v>
@@ -17773,10 +17776,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17799,19 +17802,19 @@
         <v>90</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O133" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>78</v>
@@ -17860,7 +17863,7 @@
         <v>78</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>79</v>
@@ -17878,10 +17881,10 @@
         <v>78</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>78</v>
@@ -17892,10 +17895,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -17921,16 +17924,16 @@
         <v>103</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>78</v>
@@ -17979,7 +17982,7 @@
         <v>78</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>79</v>
@@ -17997,10 +18000,10 @@
         <v>78</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>78</v>
@@ -18011,10 +18014,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18040,16 +18043,16 @@
         <v>103</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>78</v>
@@ -18098,7 +18101,7 @@
         <v>78</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>79</v>
@@ -18113,16 +18116,16 @@
         <v>101</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>78</v>
@@ -18130,10 +18133,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18159,16 +18162,16 @@
         <v>103</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="O136" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>78</v>
@@ -18217,7 +18220,7 @@
         <v>78</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>79</v>
@@ -18238,7 +18241,7 @@
         <v>78</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>78</v>
@@ -18249,10 +18252,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18275,19 +18278,19 @@
         <v>78</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O137" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>78</v>
@@ -18336,7 +18339,7 @@
         <v>78</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>79</v>
@@ -18348,19 +18351,19 @@
         <v>201</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AK137" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AO137" t="s" s="2">
         <v>78</v>
@@ -18368,10 +18371,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18394,19 +18397,19 @@
         <v>78</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>78</v>
@@ -18455,7 +18458,7 @@
         <v>78</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>79</v>
@@ -18467,19 +18470,19 @@
         <v>201</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>78</v>
@@ -18487,10 +18490,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18513,17 +18516,17 @@
         <v>90</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>78</v>
@@ -18572,7 +18575,7 @@
         <v>78</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>79</v>
@@ -18590,10 +18593,10 @@
         <v>78</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>107</v>
@@ -18604,10 +18607,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -18719,10 +18722,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -18836,10 +18839,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -18865,13 +18868,13 @@
         <v>103</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
@@ -18921,7 +18924,7 @@
         <v>78</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>79</v>
@@ -18930,7 +18933,7 @@
         <v>89</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>101</v>
@@ -18953,10 +18956,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -18982,13 +18985,13 @@
         <v>131</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" t="s" s="2">
@@ -19018,7 +19021,7 @@
       </c>
       <c r="Y143" s="2"/>
       <c r="Z143" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AA143" t="s" s="2">
         <v>78</v>
@@ -19036,7 +19039,7 @@
         <v>78</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>79</v>
@@ -19068,10 +19071,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19097,13 +19100,13 @@
         <v>216</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
@@ -19153,7 +19156,7 @@
         <v>78</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>79</v>
@@ -19174,7 +19177,7 @@
         <v>78</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>78</v>
@@ -19185,10 +19188,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19214,13 +19217,13 @@
         <v>103</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" t="s" s="2">
@@ -19270,7 +19273,7 @@
         <v>78</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>79</v>
@@ -19302,10 +19305,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19328,19 +19331,19 @@
         <v>78</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O146" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>78</v>
@@ -19389,7 +19392,7 @@
         <v>78</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>79</v>
@@ -19410,7 +19413,7 @@
         <v>78</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>78</v>
@@ -19421,10 +19424,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19536,10 +19539,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -19653,14 +19656,14 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" t="s" s="2">
@@ -19682,10 +19685,10 @@
         <v>110</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="N149" t="s" s="2">
         <v>113</v>
@@ -19740,7 +19743,7 @@
         <v>78</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>79</v>
@@ -19772,10 +19775,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -19801,14 +19804,14 @@
         <v>239</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>78</v>
@@ -19836,10 +19839,10 @@
         <v>151</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Z150" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AA150" t="s" s="2">
         <v>78</v>
@@ -19857,7 +19860,7 @@
         <v>78</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>79</v>
@@ -19878,7 +19881,7 @@
         <v>78</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>78</v>
@@ -19889,10 +19892,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -19915,17 +19918,17 @@
         <v>78</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>78</v>
@@ -19974,7 +19977,7 @@
         <v>78</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>79</v>
@@ -19992,10 +19995,10 @@
         <v>78</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>78</v>
@@ -20006,10 +20009,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20032,17 +20035,17 @@
         <v>78</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>78</v>
@@ -20091,7 +20094,7 @@
         <v>78</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>79</v>
@@ -20103,19 +20106,19 @@
         <v>201</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AN152" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AO152" t="s" s="2">
         <v>78</v>
@@ -20123,10 +20126,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -20149,19 +20152,19 @@
         <v>78</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O153" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>78</v>
@@ -20210,7 +20213,7 @@
         <v>78</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>79</v>
@@ -20228,13 +20231,13 @@
         <v>78</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AN153" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AO153" t="s" s="2">
         <v>78</v>
@@ -20242,10 +20245,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20268,17 +20271,17 @@
         <v>78</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>78</v>
@@ -20327,7 +20330,7 @@
         <v>78</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>79</v>

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5764" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5764" uniqueCount="613">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:44:55+00:00</t>
+    <t>2025-12-19T09:03:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -439,7 +439,7 @@
     <t>Organization.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -490,7 +490,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -514,7 +514,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -557,7 +557,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -633,7 +633,7 @@
     <t>shortName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-short-name}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-short-name|2.1.0}
 </t>
   </si>
   <si>
@@ -650,7 +650,7 @@
     <t>description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-description}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-description|2.1.0}
 </t>
   </si>
   <si>
@@ -663,7 +663,7 @@
     <t>usePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {organization-period}
+    <t xml:space="preserve">Extension {organization-period|5.2.0}
 </t>
   </si>
   <si>
@@ -749,7 +749,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -777,7 +777,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-identifier-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-identifier-type|2.1.0</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -871,7 +871,7 @@
     <t>Organization.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -921,9 +921,6 @@
   </si>
   <si>
     <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
   </si>
   <si>
     <t>Organization.identifier:idNatSt.type</t>
@@ -940,7 +937,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Organization.identifier:idNatSt.system</t>
@@ -1424,7 +1421,7 @@
     <t>Used to categorize the organization.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/organization-type</t>
+    <t>http://hl7.org/fhir/ValueSet/organization-type|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">pattern:$this}
@@ -1446,7 +1443,7 @@
     <t>organizationType</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type|2.1.0</t>
   </si>
   <si>
     <t>Organization.type:organizationType.id</t>
@@ -1527,7 +1524,7 @@
     <t>Secteurs d'activité des établissements avec la même activité dans le RASS</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J101-SecteurActivite-RASS/FHIR/JDV-J101-SecteurActivite-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J101-SecteurActivite-RASS/FHIR/JDV-J101-SecteurActivite-RASS|20250828120000</t>
   </si>
   <si>
     <t>Organization.type:secteurActiviteRASS.id</t>
@@ -1572,7 +1569,7 @@
     <t>Catégorie d'établissement du RASS</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J129-CategorieEtablissement-RASS/FHIR/JDV-J129-CategorieEtablissement-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J129-CategorieEtablissement-RASS/FHIR/JDV-J129-CategorieEtablissement-RASS|20241025120000</t>
   </si>
   <si>
     <t>Organization.type:categorieEtablissementRASS.id</t>
@@ -1654,7 +1651,7 @@
     <t>Organization.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.1.0}
 </t>
   </si>
   <si>
@@ -1686,7 +1683,7 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.1.0}
 </t>
   </si>
   <si>
@@ -1718,7 +1715,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0)
 </t>
   </si>
   <si>
@@ -1871,7 +1868,7 @@
     <t>The purpose for which you would contact a contact party.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
+    <t>http://hl7.org/fhir/ValueSet/contactentity-type|4.0.1</t>
   </si>
   <si>
     <t>./type</t>
@@ -1918,7 +1915,7 @@
     <t>Organization.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint)
+    <t xml:space="preserve">Reference(Endpoint|4.0.1)
 </t>
   </si>
   <si>
@@ -2252,7 +2249,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.19140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.71875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2267,7 +2264,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="92.91796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="107.44921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -6333,7 +6330,7 @@
         <v>291</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -6383,7 +6380,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>238</v>
@@ -6431,7 +6428,7 @@
         <v>78</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>78</v>
@@ -6449,10 +6446,10 @@
         <v>151</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Z36" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -6502,7 +6499,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>247</v>
@@ -6550,7 +6547,7 @@
         <v>78</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>252</v>
@@ -6621,7 +6618,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>257</v>
@@ -6650,7 +6647,7 @@
         <v>103</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>259</v>
@@ -6738,7 +6735,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>266</v>
@@ -6853,7 +6850,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>274</v>
@@ -6970,13 +6967,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>215</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>78</v>
@@ -7001,7 +6998,7 @@
         <v>216</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>218</v>
@@ -7089,7 +7086,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>227</v>
@@ -7204,7 +7201,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>228</v>
@@ -7321,7 +7318,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>229</v>
@@ -7390,7 +7387,7 @@
         <v>291</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -7440,7 +7437,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>238</v>
@@ -7488,7 +7485,7 @@
         <v>78</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>78</v>
@@ -7506,10 +7503,10 @@
         <v>151</v>
       </c>
       <c r="Y45" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Z45" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
@@ -7559,7 +7556,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>247</v>
@@ -7607,7 +7604,7 @@
         <v>78</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>252</v>
@@ -7678,7 +7675,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>257</v>
@@ -7795,7 +7792,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>266</v>
@@ -7910,7 +7907,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>274</v>
@@ -8027,13 +8024,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>215</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>78</v>
@@ -8058,7 +8055,7 @@
         <v>216</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>218</v>
@@ -8146,7 +8143,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>227</v>
@@ -8261,7 +8258,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>228</v>
@@ -8378,7 +8375,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>229</v>
@@ -8447,7 +8444,7 @@
         <v>291</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
@@ -8497,7 +8494,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>238</v>
@@ -8545,7 +8542,7 @@
         <v>78</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>78</v>
@@ -8563,10 +8560,10 @@
         <v>151</v>
       </c>
       <c r="Y54" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Z54" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>78</v>
@@ -8616,7 +8613,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>247</v>
@@ -8664,7 +8661,7 @@
         <v>78</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>252</v>
@@ -8735,7 +8732,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>257</v>
@@ -8852,7 +8849,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>266</v>
@@ -8967,7 +8964,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>274</v>
@@ -9084,13 +9081,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>215</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>78</v>
@@ -9115,7 +9112,7 @@
         <v>216</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>218</v>
@@ -9203,7 +9200,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>227</v>
@@ -9318,7 +9315,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>228</v>
@@ -9435,7 +9432,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>229</v>
@@ -9504,7 +9501,7 @@
         <v>291</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>78</v>
@@ -9554,7 +9551,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>238</v>
@@ -9620,10 +9617,10 @@
         <v>151</v>
       </c>
       <c r="Y63" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Z63" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>78</v>
@@ -9673,10 +9670,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B64" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9788,10 +9785,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B65" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9905,10 +9902,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9934,16 +9931,16 @@
         <v>147</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="N66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -9992,7 +9989,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -10010,10 +10007,10 @@
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -10024,10 +10021,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B67" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10139,10 +10136,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10256,10 +10253,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B69" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10285,16 +10282,16 @@
         <v>131</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>78</v>
@@ -10304,46 +10301,46 @@
         <v>78</v>
       </c>
       <c r="S69" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF69" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10361,10 +10358,10 @@
         <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
@@ -10375,10 +10372,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B70" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10404,13 +10401,13 @@
         <v>103</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10460,7 +10457,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10478,10 +10475,10 @@
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10492,10 +10489,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="B71" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10521,14 +10518,14 @@
         <v>169</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>78</v>
@@ -10577,7 +10574,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10595,10 +10592,10 @@
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10609,10 +10606,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B72" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10638,14 +10635,14 @@
         <v>103</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>78</v>
@@ -10694,7 +10691,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10712,10 +10709,10 @@
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10726,10 +10723,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B73" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10752,19 +10749,19 @@
         <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="N73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>78</v>
@@ -10813,7 +10810,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10831,10 +10828,10 @@
         <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10845,10 +10842,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B74" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10874,16 +10871,16 @@
         <v>103</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -10932,7 +10929,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10950,10 +10947,10 @@
         <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10964,7 +10961,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>247</v>
@@ -11012,7 +11009,7 @@
         <v>78</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>252</v>
@@ -11083,7 +11080,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>257</v>
@@ -11200,7 +11197,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>266</v>
@@ -11315,7 +11312,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>274</v>
@@ -11432,13 +11429,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>215</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>78</v>
@@ -11463,7 +11460,7 @@
         <v>216</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>218</v>
@@ -11551,7 +11548,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>227</v>
@@ -11666,7 +11663,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>228</v>
@@ -11783,7 +11780,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>229</v>
@@ -11852,7 +11849,7 @@
         <v>291</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>78</v>
@@ -11902,7 +11899,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>238</v>
@@ -11950,7 +11947,7 @@
         <v>78</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>78</v>
@@ -11968,10 +11965,10 @@
         <v>151</v>
       </c>
       <c r="Y83" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Z83" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>78</v>
@@ -12021,7 +12018,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>247</v>
@@ -12069,7 +12066,7 @@
         <v>78</v>
       </c>
       <c r="S84" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="T84" t="s" s="2">
         <v>252</v>
@@ -12140,7 +12137,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>257</v>
@@ -12257,7 +12254,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>266</v>
@@ -12372,7 +12369,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>274</v>
@@ -12489,13 +12486,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>215</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>78</v>
@@ -12520,7 +12517,7 @@
         <v>216</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>218</v>
@@ -12608,7 +12605,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>227</v>
@@ -12723,7 +12720,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>228</v>
@@ -12840,7 +12837,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>229</v>
@@ -12909,7 +12906,7 @@
         <v>291</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>78</v>
@@ -12959,7 +12956,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>238</v>
@@ -13007,7 +13004,7 @@
         <v>78</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>78</v>
@@ -13025,10 +13022,10 @@
         <v>151</v>
       </c>
       <c r="Y92" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Z92" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>78</v>
@@ -13078,7 +13075,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>247</v>
@@ -13126,7 +13123,7 @@
         <v>78</v>
       </c>
       <c r="S93" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="T93" t="s" s="2">
         <v>252</v>
@@ -13197,7 +13194,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>257</v>
@@ -13314,7 +13311,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>266</v>
@@ -13429,7 +13426,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>274</v>
@@ -13546,10 +13543,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13572,26 +13569,26 @@
         <v>90</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="N97" t="s" s="2">
+      <c r="O97" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="O97" t="s" s="2">
+      <c r="P97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q97" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="P97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q97" t="s" s="2">
-        <v>440</v>
-      </c>
       <c r="R97" t="s" s="2">
         <v>78</v>
       </c>
@@ -13635,7 +13632,7 @@
         <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -13653,24 +13650,24 @@
         <v>78</v>
       </c>
       <c r="AL97" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AM97" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AM97" t="s" s="2">
+      <c r="AN97" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AN97" t="s" s="2">
+      <c r="AO97" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AO97" t="s" s="2">
-        <v>444</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13696,16 +13693,16 @@
         <v>239</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="N98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>78</v>
@@ -13733,16 +13730,16 @@
         <v>159</v>
       </c>
       <c r="Y98" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="Z98" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="Z98" t="s" s="2">
+      <c r="AA98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB98" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="AC98" s="2"/>
       <c r="AD98" t="s" s="2">
@@ -13752,7 +13749,7 @@
         <v>116</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
@@ -13770,27 +13767,27 @@
         <v>78</v>
       </c>
       <c r="AL98" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AM98" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="C99" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="C99" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>78</v>
@@ -13815,16 +13812,16 @@
         <v>239</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="N99" t="s" s="2">
+      <c r="O99" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>78</v>
@@ -13853,7 +13850,7 @@
       </c>
       <c r="Y99" s="2"/>
       <c r="Z99" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>78</v>
@@ -13871,7 +13868,7 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
@@ -13889,24 +13886,24 @@
         <v>78</v>
       </c>
       <c r="AL99" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AM99" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B100" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14018,10 +14015,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B101" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14135,10 +14132,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B102" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14164,16 +14161,16 @@
         <v>147</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="N102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>78</v>
@@ -14222,7 +14219,7 @@
         <v>78</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
@@ -14240,10 +14237,10 @@
         <v>78</v>
       </c>
       <c r="AL102" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AM102" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>78</v>
@@ -14254,10 +14251,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B103" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14369,10 +14366,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B104" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14486,10 +14483,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B105" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14515,16 +14512,16 @@
         <v>131</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="N105" t="s" s="2">
+      <c r="O105" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>78</v>
@@ -14573,7 +14570,7 @@
         <v>78</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
@@ -14591,10 +14588,10 @@
         <v>78</v>
       </c>
       <c r="AL105" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AM105" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>78</v>
@@ -14605,10 +14602,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B106" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14634,13 +14631,13 @@
         <v>103</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14690,7 +14687,7 @@
         <v>78</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>79</v>
@@ -14708,10 +14705,10 @@
         <v>78</v>
       </c>
       <c r="AL106" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AM106" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>78</v>
@@ -14722,10 +14719,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B107" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14751,14 +14748,14 @@
         <v>169</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>78</v>
@@ -14807,7 +14804,7 @@
         <v>78</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
@@ -14825,10 +14822,10 @@
         <v>78</v>
       </c>
       <c r="AL107" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AM107" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>78</v>
@@ -14839,10 +14836,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B108" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14868,14 +14865,14 @@
         <v>103</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>78</v>
@@ -14924,7 +14921,7 @@
         <v>78</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
@@ -14942,10 +14939,10 @@
         <v>78</v>
       </c>
       <c r="AL108" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AM108" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>78</v>
@@ -14956,10 +14953,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B109" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14982,19 +14979,19 @@
         <v>90</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L109" t="s" s="2">
+      <c r="M109" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="N109" t="s" s="2">
+      <c r="O109" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>78</v>
@@ -15043,7 +15040,7 @@
         <v>78</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
@@ -15061,10 +15058,10 @@
         <v>78</v>
       </c>
       <c r="AL109" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM109" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>78</v>
@@ -15075,10 +15072,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B110" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15104,16 +15101,16 @@
         <v>103</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="N110" t="s" s="2">
+      <c r="O110" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>78</v>
@@ -15162,7 +15159,7 @@
         <v>78</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
@@ -15180,10 +15177,10 @@
         <v>78</v>
       </c>
       <c r="AL110" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AM110" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>78</v>
@@ -15194,13 +15191,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="C111" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="C111" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="D111" t="s" s="2">
         <v>78</v>
@@ -15225,16 +15222,16 @@
         <v>239</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M111" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N111" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="N111" t="s" s="2">
+      <c r="O111" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>78</v>
@@ -15263,7 +15260,7 @@
       </c>
       <c r="Y111" s="2"/>
       <c r="Z111" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>78</v>
@@ -15281,7 +15278,7 @@
         <v>78</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>79</v>
@@ -15299,24 +15296,24 @@
         <v>78</v>
       </c>
       <c r="AL111" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AM111" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO111" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15428,10 +15425,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15545,10 +15542,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15574,16 +15571,16 @@
         <v>147</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M114" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="N114" t="s" s="2">
+      <c r="O114" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>78</v>
@@ -15632,7 +15629,7 @@
         <v>78</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
@@ -15650,10 +15647,10 @@
         <v>78</v>
       </c>
       <c r="AL114" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AM114" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>78</v>
@@ -15664,10 +15661,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15779,10 +15776,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15896,10 +15893,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15925,16 +15922,16 @@
         <v>131</v>
       </c>
       <c r="L117" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="N117" t="s" s="2">
+      <c r="O117" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>78</v>
@@ -15983,7 +15980,7 @@
         <v>78</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
@@ -16001,10 +15998,10 @@
         <v>78</v>
       </c>
       <c r="AL117" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AM117" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>78</v>
@@ -16015,10 +16012,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16044,13 +16041,13 @@
         <v>103</v>
       </c>
       <c r="L118" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M118" t="s" s="2">
+      <c r="N118" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
@@ -16100,7 +16097,7 @@
         <v>78</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>79</v>
@@ -16118,10 +16115,10 @@
         <v>78</v>
       </c>
       <c r="AL118" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AM118" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>78</v>
@@ -16132,10 +16129,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16161,14 +16158,14 @@
         <v>169</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>78</v>
@@ -16217,7 +16214,7 @@
         <v>78</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>79</v>
@@ -16235,10 +16232,10 @@
         <v>78</v>
       </c>
       <c r="AL119" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AM119" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>78</v>
@@ -16249,10 +16246,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16278,14 +16275,14 @@
         <v>103</v>
       </c>
       <c r="L120" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>78</v>
@@ -16334,7 +16331,7 @@
         <v>78</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>79</v>
@@ -16352,10 +16349,10 @@
         <v>78</v>
       </c>
       <c r="AL120" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AM120" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>78</v>
@@ -16366,10 +16363,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16392,19 +16389,19 @@
         <v>90</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L121" t="s" s="2">
+      <c r="M121" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="N121" t="s" s="2">
+      <c r="O121" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>78</v>
@@ -16453,7 +16450,7 @@
         <v>78</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>79</v>
@@ -16471,10 +16468,10 @@
         <v>78</v>
       </c>
       <c r="AL121" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM121" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>78</v>
@@ -16485,10 +16482,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16514,16 +16511,16 @@
         <v>103</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="N122" t="s" s="2">
+      <c r="O122" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>78</v>
@@ -16572,7 +16569,7 @@
         <v>78</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>79</v>
@@ -16590,10 +16587,10 @@
         <v>78</v>
       </c>
       <c r="AL122" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AM122" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AM122" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>78</v>
@@ -16604,13 +16601,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="C123" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="C123" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>78</v>
@@ -16635,16 +16632,16 @@
         <v>239</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M123" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N123" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="N123" t="s" s="2">
+      <c r="O123" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>78</v>
@@ -16673,7 +16670,7 @@
       </c>
       <c r="Y123" s="2"/>
       <c r="Z123" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>78</v>
@@ -16691,7 +16688,7 @@
         <v>78</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>79</v>
@@ -16709,24 +16706,24 @@
         <v>78</v>
       </c>
       <c r="AL123" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AM123" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AM123" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO123" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16838,10 +16835,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16955,10 +16952,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16984,16 +16981,16 @@
         <v>147</v>
       </c>
       <c r="L126" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M126" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="N126" t="s" s="2">
+      <c r="O126" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>78</v>
@@ -17042,7 +17039,7 @@
         <v>78</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>79</v>
@@ -17060,10 +17057,10 @@
         <v>78</v>
       </c>
       <c r="AL126" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AM126" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>78</v>
@@ -17074,10 +17071,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17189,10 +17186,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17306,10 +17303,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17335,16 +17332,16 @@
         <v>131</v>
       </c>
       <c r="L129" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M129" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M129" t="s" s="2">
+      <c r="N129" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="N129" t="s" s="2">
+      <c r="O129" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>78</v>
@@ -17393,7 +17390,7 @@
         <v>78</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>79</v>
@@ -17411,10 +17408,10 @@
         <v>78</v>
       </c>
       <c r="AL129" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AM129" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>78</v>
@@ -17425,10 +17422,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17454,13 +17451,13 @@
         <v>103</v>
       </c>
       <c r="L130" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
@@ -17510,7 +17507,7 @@
         <v>78</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>79</v>
@@ -17528,10 +17525,10 @@
         <v>78</v>
       </c>
       <c r="AL130" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AM130" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AM130" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>78</v>
@@ -17542,10 +17539,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17571,14 +17568,14 @@
         <v>169</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>78</v>
@@ -17627,7 +17624,7 @@
         <v>78</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>79</v>
@@ -17645,10 +17642,10 @@
         <v>78</v>
       </c>
       <c r="AL131" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AM131" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AM131" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>78</v>
@@ -17659,10 +17656,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17688,14 +17685,14 @@
         <v>103</v>
       </c>
       <c r="L132" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M132" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>78</v>
@@ -17744,7 +17741,7 @@
         <v>78</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>79</v>
@@ -17762,10 +17759,10 @@
         <v>78</v>
       </c>
       <c r="AL132" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AM132" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AM132" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>78</v>
@@ -17776,10 +17773,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17802,19 +17799,19 @@
         <v>90</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L133" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L133" t="s" s="2">
+      <c r="M133" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M133" t="s" s="2">
+      <c r="N133" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="N133" t="s" s="2">
+      <c r="O133" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="O133" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>78</v>
@@ -17863,7 +17860,7 @@
         <v>78</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>79</v>
@@ -17881,10 +17878,10 @@
         <v>78</v>
       </c>
       <c r="AL133" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM133" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AM133" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>78</v>
@@ -17895,10 +17892,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -17924,16 +17921,16 @@
         <v>103</v>
       </c>
       <c r="L134" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M134" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M134" t="s" s="2">
+      <c r="N134" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="N134" t="s" s="2">
+      <c r="O134" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>78</v>
@@ -17982,7 +17979,7 @@
         <v>78</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>79</v>
@@ -18000,10 +17997,10 @@
         <v>78</v>
       </c>
       <c r="AL134" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AM134" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AM134" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>78</v>
@@ -18014,10 +18011,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18043,16 +18040,16 @@
         <v>103</v>
       </c>
       <c r="L135" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="M135" t="s" s="2">
+      <c r="N135" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="N135" t="s" s="2">
+      <c r="O135" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>78</v>
@@ -18101,7 +18098,7 @@
         <v>78</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>79</v>
@@ -18116,16 +18113,16 @@
         <v>101</v>
       </c>
       <c r="AK135" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AL135" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="AL135" t="s" s="2">
+      <c r="AM135" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="AM135" t="s" s="2">
+      <c r="AN135" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>78</v>
@@ -18133,10 +18130,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18162,16 +18159,16 @@
         <v>103</v>
       </c>
       <c r="L136" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="M136" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="M136" t="s" s="2">
+      <c r="N136" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="N136" t="s" s="2">
+      <c r="O136" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>78</v>
@@ -18220,7 +18217,7 @@
         <v>78</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>79</v>
@@ -18241,7 +18238,7 @@
         <v>78</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>78</v>
@@ -18252,10 +18249,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18278,19 +18275,19 @@
         <v>78</v>
       </c>
       <c r="K137" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L137" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="L137" t="s" s="2">
+      <c r="M137" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="M137" t="s" s="2">
+      <c r="N137" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="N137" t="s" s="2">
+      <c r="O137" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="O137" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>78</v>
@@ -18339,7 +18336,7 @@
         <v>78</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>79</v>
@@ -18351,19 +18348,19 @@
         <v>201</v>
       </c>
       <c r="AJ137" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AK137" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL137" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="AK137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL137" t="s" s="2">
+      <c r="AM137" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AM137" t="s" s="2">
+      <c r="AN137" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="AN137" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="AO137" t="s" s="2">
         <v>78</v>
@@ -18371,10 +18368,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18397,19 +18394,19 @@
         <v>78</v>
       </c>
       <c r="K138" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L138" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="L138" t="s" s="2">
+      <c r="M138" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="M138" t="s" s="2">
+      <c r="N138" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="N138" t="s" s="2">
+      <c r="O138" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>78</v>
@@ -18458,7 +18455,7 @@
         <v>78</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>79</v>
@@ -18470,19 +18467,19 @@
         <v>201</v>
       </c>
       <c r="AJ138" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AK138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL138" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="AK138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL138" t="s" s="2">
+      <c r="AM138" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="AM138" t="s" s="2">
+      <c r="AN138" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="AN138" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>78</v>
@@ -18490,10 +18487,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18516,17 +18513,17 @@
         <v>90</v>
       </c>
       <c r="K139" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="L139" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="L139" t="s" s="2">
+      <c r="M139" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>78</v>
@@ -18575,7 +18572,7 @@
         <v>78</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>79</v>
@@ -18593,10 +18590,10 @@
         <v>78</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>107</v>
@@ -18607,10 +18604,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -18722,10 +18719,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -18839,10 +18836,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -18868,13 +18865,13 @@
         <v>103</v>
       </c>
       <c r="L142" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="M142" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="M142" t="s" s="2">
+      <c r="N142" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
@@ -18924,16 +18921,16 @@
         <v>78</v>
       </c>
       <c r="AF142" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI142" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="AG142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH142" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI142" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>101</v>
@@ -18956,10 +18953,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -18985,13 +18982,13 @@
         <v>131</v>
       </c>
       <c r="L143" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M143" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="M143" t="s" s="2">
+      <c r="N143" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" t="s" s="2">
@@ -19021,7 +19018,7 @@
       </c>
       <c r="Y143" s="2"/>
       <c r="Z143" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AA143" t="s" s="2">
         <v>78</v>
@@ -19039,7 +19036,7 @@
         <v>78</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>79</v>
@@ -19071,10 +19068,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19100,13 +19097,13 @@
         <v>216</v>
       </c>
       <c r="L144" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M144" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="M144" t="s" s="2">
+      <c r="N144" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
@@ -19156,7 +19153,7 @@
         <v>78</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>79</v>
@@ -19177,7 +19174,7 @@
         <v>78</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>78</v>
@@ -19188,10 +19185,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19217,13 +19214,13 @@
         <v>103</v>
       </c>
       <c r="L145" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="M145" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="M145" t="s" s="2">
+      <c r="N145" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" t="s" s="2">
@@ -19273,7 +19270,7 @@
         <v>78</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>79</v>
@@ -19305,10 +19302,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19331,19 +19328,19 @@
         <v>78</v>
       </c>
       <c r="K146" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="L146" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="L146" t="s" s="2">
+      <c r="M146" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="M146" t="s" s="2">
+      <c r="N146" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="N146" t="s" s="2">
+      <c r="O146" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="O146" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>78</v>
@@ -19392,7 +19389,7 @@
         <v>78</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>79</v>
@@ -19413,7 +19410,7 @@
         <v>78</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>78</v>
@@ -19424,10 +19421,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19539,10 +19536,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -19656,14 +19653,14 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" t="s" s="2">
@@ -19685,10 +19682,10 @@
         <v>110</v>
       </c>
       <c r="L149" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M149" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="N149" t="s" s="2">
         <v>113</v>
@@ -19743,7 +19740,7 @@
         <v>78</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>79</v>
@@ -19775,10 +19772,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -19804,14 +19801,14 @@
         <v>239</v>
       </c>
       <c r="L150" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="M150" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>78</v>
@@ -19839,11 +19836,11 @@
         <v>151</v>
       </c>
       <c r="Y150" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="Z150" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="Z150" t="s" s="2">
-        <v>595</v>
-      </c>
       <c r="AA150" t="s" s="2">
         <v>78</v>
       </c>
@@ -19860,7 +19857,7 @@
         <v>78</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>79</v>
@@ -19881,7 +19878,7 @@
         <v>78</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>78</v>
@@ -19892,10 +19889,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -19918,17 +19915,17 @@
         <v>78</v>
       </c>
       <c r="K151" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="L151" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="L151" t="s" s="2">
+      <c r="M151" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>78</v>
@@ -19977,7 +19974,7 @@
         <v>78</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>79</v>
@@ -19995,10 +19992,10 @@
         <v>78</v>
       </c>
       <c r="AL151" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AM151" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="AM151" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>78</v>
@@ -20009,10 +20006,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20035,17 +20032,17 @@
         <v>78</v>
       </c>
       <c r="K152" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L152" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="L152" t="s" s="2">
+      <c r="M152" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="M152" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>78</v>
@@ -20094,7 +20091,7 @@
         <v>78</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>79</v>
@@ -20106,19 +20103,19 @@
         <v>201</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL152" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AM152" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AM152" t="s" s="2">
+      <c r="AN152" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="AN152" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="AO152" t="s" s="2">
         <v>78</v>
@@ -20126,10 +20123,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -20152,19 +20149,19 @@
         <v>78</v>
       </c>
       <c r="K153" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L153" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="L153" t="s" s="2">
+      <c r="M153" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="M153" t="s" s="2">
+      <c r="N153" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="N153" t="s" s="2">
-        <v>540</v>
-      </c>
       <c r="O153" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>78</v>
@@ -20213,7 +20210,7 @@
         <v>78</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>79</v>
@@ -20231,13 +20228,13 @@
         <v>78</v>
       </c>
       <c r="AL153" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AM153" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="AM153" t="s" s="2">
+      <c r="AN153" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="AN153" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="AO153" t="s" s="2">
         <v>78</v>
@@ -20245,10 +20242,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20271,17 +20268,17 @@
         <v>78</v>
       </c>
       <c r="K154" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="L154" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="L154" t="s" s="2">
+      <c r="M154" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="M154" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>78</v>
@@ -20330,7 +20327,7 @@
         <v>78</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>79</v>

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T09:03:44+00:00</t>
+    <t>2025-12-19T09:25:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T09:25:15+00:00</t>
+    <t>2025-12-19T09:58:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
